--- a/Relatorio_anuncios_patrocinados_07d_total_MG.xlsx
+++ b/Relatorio_anuncios_patrocinados_07d_total_MG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33178D4C-5B57-4418-BB36-A5AA749FC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AFAB704D-883F-48C6-856F-11B85E99B8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568F9B4F-C76A-4351-A39B-25C90021F3CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 25-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
     </r>
     <r>
       <rPr>
@@ -271,10 +271,10 @@
     </r>
   </si>
   <si>
-    <t>18-jul-2025</t>
-  </si>
-  <si>
-    <t>24-jul-2025</t>
+    <t>21-jul-2025</t>
+  </si>
+  <si>
+    <t>27-jul-2025</t>
   </si>
   <si>
     <t>ads 280 aroeira orgânico</t>
@@ -971,43 +971,43 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>856</v>
+        <v>622</v>
       </c>
       <c r="H3" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" s="9">
-        <v>1.31</v>
+        <v>0.8</v>
       </c>
       <c r="J3" s="9">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="K3" s="9">
-        <v>25</v>
+        <v>7.14</v>
       </c>
       <c r="L3" s="9">
-        <v>104.25</v>
+        <v>20.850000381469727</v>
       </c>
       <c r="M3" s="9">
-        <v>26.11</v>
+        <v>11.26</v>
       </c>
       <c r="N3" s="9">
-        <v>25.05</v>
+        <v>54.01</v>
       </c>
       <c r="O3" s="9">
-        <v>399.27</v>
+        <v>185.17</v>
       </c>
       <c r="P3" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S3" s="9">
-        <v>104.25</v>
+        <v>20.850000381469727</v>
       </c>
       <c r="T3" s="9">
         <v>0</v>
@@ -1157,43 +1157,43 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>33126</v>
+        <v>19572</v>
       </c>
       <c r="H6" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I6" s="9">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="J6" s="9">
         <v>0.15</v>
       </c>
       <c r="K6" s="9">
-        <v>12</v>
+        <v>6.67</v>
       </c>
       <c r="L6" s="9">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="M6" s="9">
-        <v>33.26</v>
+        <v>21.15</v>
       </c>
       <c r="N6" s="9">
-        <v>16.3</v>
+        <v>31.1</v>
       </c>
       <c r="O6" s="9">
-        <v>613.35</v>
+        <v>321.51</v>
       </c>
       <c r="P6" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S6" s="9">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -1281,16 +1281,16 @@
         <v>27</v>
       </c>
       <c r="G8" s="9">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="H8" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I8" s="9">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="J8" s="9">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>29</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>5.66</v>
+        <v>1.4</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>29</v>
@@ -1343,16 +1343,16 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H9" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I9" s="9">
-        <v>1.34</v>
+        <v>0.69</v>
       </c>
       <c r="J9" s="9">
-        <v>2.78</v>
+        <v>6.21</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>29</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>5.34</v>
+        <v>6.9</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>29</v>
@@ -1467,31 +1467,31 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>45983</v>
+        <v>32127</v>
       </c>
       <c r="H11" s="9">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I11" s="9">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J11" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K11" s="9">
-        <v>3.17</v>
+        <v>4.26</v>
       </c>
       <c r="L11" s="9">
         <v>59.740001678466797</v>
       </c>
       <c r="M11" s="9">
-        <v>31.2</v>
+        <v>23.93</v>
       </c>
       <c r="N11" s="9">
-        <v>52.23</v>
+        <v>40.06</v>
       </c>
       <c r="O11" s="9">
-        <v>191.47</v>
+        <v>249.64</v>
       </c>
       <c r="P11" s="9">
         <v>2</v>
@@ -1529,16 +1529,16 @@
         <v>27</v>
       </c>
       <c r="G12" s="9">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="H12" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I12" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="J12" s="9">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>29</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <v>3.88</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>29</v>
@@ -1591,43 +1591,43 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>809</v>
+        <v>458</v>
       </c>
       <c r="H13" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="J13" s="9">
-        <v>5.32</v>
+        <v>6.11</v>
       </c>
       <c r="K13" s="9">
-        <v>6.98</v>
+        <v>3.57</v>
       </c>
       <c r="L13" s="9">
-        <v>55.979999542236328</v>
+        <v>18.659999847412109</v>
       </c>
       <c r="M13" s="9">
-        <v>28.06</v>
+        <v>12.87</v>
       </c>
       <c r="N13" s="9">
-        <v>50.12</v>
+        <v>68.97</v>
       </c>
       <c r="O13" s="9">
-        <v>199.5</v>
+        <v>144.99</v>
       </c>
       <c r="P13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="9">
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S13" s="9">
-        <v>55.979999542236328</v>
+        <v>18.659999847412109</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
@@ -1715,43 +1715,43 @@
         <v>27</v>
       </c>
       <c r="G15" s="9">
-        <v>2304</v>
+        <v>1522</v>
       </c>
       <c r="H15" s="9">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I15" s="9">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="J15" s="9">
-        <v>4.82</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="K15" s="9">
-        <v>9.91</v>
+        <v>8.33</v>
       </c>
       <c r="L15" s="9">
-        <v>238.59001159667969</v>
+        <v>130.13999938964844</v>
       </c>
       <c r="M15" s="9">
-        <v>96.61</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="N15" s="9">
-        <v>40.49</v>
+        <v>53.8</v>
       </c>
       <c r="O15" s="9">
-        <v>246.96</v>
+        <v>185.89</v>
       </c>
       <c r="P15" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="9">
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S15" s="9">
-        <v>238.59001159667969</v>
+        <v>130.13999938964844</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="9">
-        <v>498</v>
+        <v>344</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -1963,16 +1963,16 @@
         <v>27</v>
       </c>
       <c r="G19" s="9">
-        <v>1427</v>
+        <v>944</v>
       </c>
       <c r="H19" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="9">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="J19" s="9">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>29</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>3.54</v>
+        <v>1.68</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>29</v>
@@ -2025,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="9">
-        <v>573</v>
+        <v>402</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>27</v>
       </c>
       <c r="G21" s="9">
-        <v>2043</v>
+        <v>1259</v>
       </c>
       <c r="H21" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="J21" s="9">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>29</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="9">
-        <v>4.3499999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>29</v>
@@ -2149,31 +2149,31 @@
         <v>27</v>
       </c>
       <c r="G22" s="9">
-        <v>4144</v>
+        <v>3118</v>
       </c>
       <c r="H22" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="J22" s="9">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="K22" s="9">
-        <v>2.86</v>
+        <v>3.57</v>
       </c>
       <c r="L22" s="9">
         <v>153.8699951171875</v>
       </c>
       <c r="M22" s="9">
-        <v>47.11</v>
+        <v>37.19</v>
       </c>
       <c r="N22" s="9">
-        <v>30.62</v>
+        <v>24.17</v>
       </c>
       <c r="O22" s="9">
-        <v>326.62</v>
+        <v>413.74</v>
       </c>
       <c r="P22" s="9">
         <v>1</v>
@@ -2211,31 +2211,31 @@
         <v>27</v>
       </c>
       <c r="G23" s="9">
-        <v>3208</v>
+        <v>1666</v>
       </c>
       <c r="H23" s="9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I23" s="9">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="J23" s="9">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="K23" s="9">
-        <v>5.88</v>
+        <v>10</v>
       </c>
       <c r="L23" s="9">
         <v>153.8699951171875</v>
       </c>
       <c r="M23" s="9">
-        <v>25.38</v>
+        <v>10.01</v>
       </c>
       <c r="N23" s="9">
-        <v>16.489999999999998</v>
+        <v>6.51</v>
       </c>
       <c r="O23" s="9">
-        <v>606.26</v>
+        <v>1537.2</v>
       </c>
       <c r="P23" s="9">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>27</v>
       </c>
       <c r="G24" s="9">
-        <v>8784</v>
+        <v>5731</v>
       </c>
       <c r="H24" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="9">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="J24" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>29</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="9">
-        <v>5.17</v>
+        <v>2.27</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>29</v>
@@ -2335,31 +2335,31 @@
         <v>27</v>
       </c>
       <c r="G25" s="9">
-        <v>20659</v>
+        <v>13640</v>
       </c>
       <c r="H25" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9">
         <v>0.43</v>
       </c>
       <c r="J25" s="9">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="K25" s="9">
-        <v>1.64</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L25" s="9">
         <v>31.280000686645508</v>
       </c>
       <c r="M25" s="9">
-        <v>26.47</v>
+        <v>9.99</v>
       </c>
       <c r="N25" s="9">
-        <v>84.62</v>
+        <v>31.94</v>
       </c>
       <c r="O25" s="9">
-        <v>118.17</v>
+        <v>313.11</v>
       </c>
       <c r="P25" s="9">
         <v>1</v>

--- a/Relatorio_anuncios_patrocinados_07d_total_MG.xlsx
+++ b/Relatorio_anuncios_patrocinados_07d_total_MG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmdel\OneDrive\Aplicativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AFAB704D-883F-48C6-856F-11B85E99B8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568F9B4F-C76A-4351-A39B-25C90021F3CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1B24E8-B3C8-4ACF-9557-DCC2D4059576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 02-ago-2025</t>
     </r>
     <r>
       <rPr>
@@ -271,10 +271,10 @@
     </r>
   </si>
   <si>
-    <t>21-jul-2025</t>
-  </si>
-  <si>
-    <t>27-jul-2025</t>
+    <t>26-jul-2025</t>
+  </si>
+  <si>
+    <t>01-ago-2025</t>
   </si>
   <si>
     <t>ads 280 aroeira orgânico</t>
@@ -328,15 +328,15 @@
     <t>MLB3991652553</t>
   </si>
   <si>
+    <t>Desativada</t>
+  </si>
+  <si>
     <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 300g</t>
   </si>
   <si>
     <t>MLB3933985929</t>
   </si>
   <si>
-    <t>Desativada</t>
-  </si>
-  <si>
     <t>Gel Calmante Pós Depilatório Camomila E Calend Belbras 500ml</t>
   </si>
   <si>
@@ -425,15 +425,6 @@
   </si>
   <si>
     <t>MLB5454087542</t>
-  </si>
-  <si>
-    <t>Crescimento semente uva</t>
-  </si>
-  <si>
-    <t>Oleo Semente De Uva- Pos Depilacao</t>
-  </si>
-  <si>
-    <t>MLB3988750761</t>
   </si>
 </sst>
 </file>
@@ -971,46 +962,46 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>622</v>
+        <v>190</v>
       </c>
       <c r="H3" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I3" s="9">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="9">
-        <v>2.25</v>
+        <v>3.68</v>
       </c>
       <c r="K3" s="9">
-        <v>7.14</v>
+        <v>14.29</v>
       </c>
       <c r="L3" s="9">
-        <v>20.850000381469727</v>
+        <v>19.319999694824219</v>
       </c>
       <c r="M3" s="9">
-        <v>11.26</v>
+        <v>1.73</v>
       </c>
       <c r="N3" s="9">
-        <v>54.01</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="O3" s="9">
-        <v>185.17</v>
+        <v>1116.8</v>
       </c>
       <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
         <v>1</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
       </c>
       <c r="S3" s="9">
-        <v>20.850000381469727</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9">
-        <v>0</v>
+        <v>19.319999694824219</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -1033,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1157,43 +1148,43 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>19572</v>
+        <v>7700</v>
       </c>
       <c r="H6" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I6" s="9">
-        <v>0.7</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J6" s="9">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="K6" s="9">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="L6" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9">
-        <v>21.15</v>
+        <v>2.79</v>
       </c>
       <c r="N6" s="9">
-        <v>31.1</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="O6" s="9">
-        <v>321.51</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="P6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -1219,7 +1210,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -1281,16 +1272,16 @@
         <v>27</v>
       </c>
       <c r="G8" s="9">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H8" s="9">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="9">
-        <v>2.27</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>29</v>
@@ -1299,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>29</v>
@@ -1340,19 +1331,19 @@
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G9" s="9">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="H9" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9">
-        <v>0.69</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J9" s="9">
-        <v>6.21</v>
+        <v>3.03</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>29</v>
@@ -1361,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>6.9</v>
+        <v>3.03</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>29</v>
@@ -1396,13 +1387,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -1467,43 +1458,43 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>32127</v>
+        <v>13802</v>
       </c>
       <c r="H11" s="9">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I11" s="9">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="J11" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K11" s="9">
-        <v>4.26</v>
+        <v>0.11</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="L11" s="9">
-        <v>59.740001678466797</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>23.93</v>
-      </c>
-      <c r="N11" s="9">
-        <v>40.06</v>
-      </c>
-      <c r="O11" s="9">
-        <v>249.64</v>
+        <v>1.94</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="9">
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="9">
-        <v>59.740001678466797</v>
+        <v>0</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
@@ -1529,16 +1520,16 @@
         <v>27</v>
       </c>
       <c r="G12" s="9">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H12" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I12" s="9">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="J12" s="9">
-        <v>3.12</v>
+        <v>1.34</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>29</v>
@@ -1547,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <v>4.7300000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>29</v>
@@ -1591,43 +1582,43 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="H13" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="J13" s="9">
-        <v>6.11</v>
+        <v>5.33</v>
       </c>
       <c r="K13" s="9">
-        <v>3.57</v>
+        <v>15.62</v>
       </c>
       <c r="L13" s="9">
-        <v>18.659999847412109</v>
+        <v>93.300003051757813</v>
       </c>
       <c r="M13" s="9">
-        <v>12.87</v>
+        <v>13.11</v>
       </c>
       <c r="N13" s="9">
-        <v>68.97</v>
+        <v>14.05</v>
       </c>
       <c r="O13" s="9">
-        <v>144.99</v>
+        <v>711.67</v>
       </c>
       <c r="P13" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="9">
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" s="9">
-        <v>18.659999847412109</v>
+        <v>93.300003051757813</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
@@ -1715,31 +1706,31 @@
         <v>27</v>
       </c>
       <c r="G15" s="9">
-        <v>1522</v>
+        <v>670</v>
       </c>
       <c r="H15" s="9">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9">
-        <v>0.97</v>
+        <v>0.3</v>
       </c>
       <c r="J15" s="9">
-        <v>4.7300000000000004</v>
+        <v>5.52</v>
       </c>
       <c r="K15" s="9">
-        <v>8.33</v>
+        <v>16.22</v>
       </c>
       <c r="L15" s="9">
-        <v>130.13999938964844</v>
+        <v>134.27000427246094</v>
       </c>
       <c r="M15" s="9">
-        <v>70.010000000000005</v>
+        <v>11.04</v>
       </c>
       <c r="N15" s="9">
-        <v>53.8</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="O15" s="9">
-        <v>185.89</v>
+        <v>1216.2</v>
       </c>
       <c r="P15" s="9">
         <v>6</v>
@@ -1751,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="S15" s="9">
-        <v>130.13999938964844</v>
+        <v>134.27000427246094</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -1839,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -1901,7 +1892,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="9">
-        <v>344</v>
+        <v>180</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -1963,16 +1954,16 @@
         <v>27</v>
       </c>
       <c r="G19" s="9">
-        <v>944</v>
+        <v>584</v>
       </c>
       <c r="H19" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="J19" s="9">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>29</v>
@@ -1981,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>1.68</v>
+        <v>0.53</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>29</v>
@@ -2025,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="9">
-        <v>402</v>
+        <v>259</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -2087,43 +2078,43 @@
         <v>27</v>
       </c>
       <c r="G21" s="9">
-        <v>1259</v>
+        <v>961</v>
       </c>
       <c r="H21" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21" s="9">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="J21" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>29</v>
+        <v>0.73</v>
+      </c>
+      <c r="K21" s="9">
+        <v>28.57</v>
       </c>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="M21" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>29</v>
+        <v>4.22</v>
+      </c>
+      <c r="N21" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="O21" s="9">
+        <v>3289.6</v>
       </c>
       <c r="P21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="9">
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="9">
-        <v>0</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="T21" s="9">
         <v>0</v>
@@ -2149,31 +2140,31 @@
         <v>27</v>
       </c>
       <c r="G22" s="9">
-        <v>3118</v>
+        <v>3452</v>
       </c>
       <c r="H22" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9">
-        <v>1.33</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J22" s="9">
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
       <c r="K22" s="9">
-        <v>3.57</v>
+        <v>5.56</v>
       </c>
       <c r="L22" s="9">
-        <v>153.8699951171875</v>
+        <v>149.25</v>
       </c>
       <c r="M22" s="9">
-        <v>37.19</v>
+        <v>19.82</v>
       </c>
       <c r="N22" s="9">
-        <v>24.17</v>
+        <v>13.28</v>
       </c>
       <c r="O22" s="9">
-        <v>413.74</v>
+        <v>753.03</v>
       </c>
       <c r="P22" s="9">
         <v>1</v>
@@ -2185,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="9">
-        <v>153.8699951171875</v>
+        <v>149.25</v>
       </c>
       <c r="T22" s="9">
         <v>0</v>
@@ -2211,43 +2202,43 @@
         <v>27</v>
       </c>
       <c r="G23" s="9">
-        <v>1666</v>
+        <v>3346</v>
       </c>
       <c r="H23" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J23" s="9">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="K23" s="9">
-        <v>10</v>
+        <v>11.77</v>
       </c>
       <c r="L23" s="9">
-        <v>153.8699951171875</v>
+        <v>298.5</v>
       </c>
       <c r="M23" s="9">
-        <v>10.01</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="N23" s="9">
-        <v>6.51</v>
+        <v>6.22</v>
       </c>
       <c r="O23" s="9">
-        <v>1537.2</v>
+        <v>1606.6</v>
       </c>
       <c r="P23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="9">
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="9">
-        <v>153.8699951171875</v>
+        <v>298.5</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
@@ -2273,110 +2264,49 @@
         <v>27</v>
       </c>
       <c r="G24" s="9">
-        <v>5731</v>
+        <v>3618</v>
       </c>
       <c r="H24" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I24" s="9">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="J24" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>29</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K24" s="9">
+        <v>20</v>
       </c>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="M24" s="9">
-        <v>2.27</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>29</v>
+        <v>6.21</v>
+      </c>
+      <c r="N24" s="9">
+        <v>4.47</v>
+      </c>
+      <c r="O24" s="9">
+        <v>2235.4</v>
       </c>
       <c r="P24" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="9">
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9">
-        <v>0</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="T24" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="9">
-        <v>13640</v>
-      </c>
-      <c r="H25" s="9">
-        <v>23</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.43</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K25" s="9">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="L25" s="9">
-        <v>31.280000686645508</v>
-      </c>
-      <c r="M25" s="9">
-        <v>9.99</v>
-      </c>
-      <c r="N25" s="9">
-        <v>31.94</v>
-      </c>
-      <c r="O25" s="9">
-        <v>313.11</v>
-      </c>
-      <c r="P25" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>1</v>
-      </c>
-      <c r="S25" s="9">
-        <v>31.280000686645508</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:20" ht="15.75" customHeight="1"/>
